--- a/Weekly_Sales.xlsx
+++ b/Weekly_Sales.xlsx
@@ -649,11 +649,7 @@
       <c r="P2" s="7" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="9" t="inlineStr">
-        <is>
-          <t>8/29/22</t>
-        </is>
-      </c>
+      <c r="A4" s="9" t="n"/>
       <c r="B4" s="10" t="inlineStr">
         <is>
           <t>MON</t>
@@ -768,19 +764,17 @@
           <t>total deposit</t>
         </is>
       </c>
-      <c r="B7" s="17" t="n">
-        <v>2786.21</v>
-      </c>
-      <c r="C7" s="18" t="n">
+      <c r="B7" s="17" t="n"/>
+      <c r="C7" s="18" t="n"/>
+      <c r="D7" s="18" t="n">
         <v>2343.99</v>
       </c>
-      <c r="D7" s="18" t="n">
+      <c r="E7" s="18" t="n">
         <v>2566.8</v>
       </c>
-      <c r="E7" s="18" t="n">
+      <c r="F7" s="18" t="n">
         <v>16188.55</v>
       </c>
-      <c r="F7" s="18" t="n"/>
       <c r="G7" s="18" t="n"/>
       <c r="H7" s="18" t="n"/>
       <c r="J7" s="19">
@@ -800,15 +794,12 @@
           <t>GIFT CARDS (SOLD)</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>200</v>
-      </c>
       <c r="C8" s="2" t="n"/>
       <c r="D8" s="2" t="n"/>
-      <c r="E8" s="2" t="n">
+      <c r="E8" s="2" t="n"/>
+      <c r="F8" s="2" t="n">
         <v>200</v>
       </c>
-      <c r="F8" s="2" t="n"/>
       <c r="G8" s="2" t="n"/>
       <c r="H8" s="2" t="n"/>
       <c r="I8" s="2" t="n"/>
@@ -840,10 +831,10 @@
       </c>
       <c r="C9" s="2" t="n"/>
       <c r="D9" s="2" t="n"/>
-      <c r="E9" s="2" t="n">
+      <c r="E9" s="2" t="n"/>
+      <c r="F9" s="2" t="n">
         <v>200</v>
       </c>
-      <c r="F9" s="2" t="n"/>
       <c r="G9" s="2" t="n"/>
       <c r="H9" s="2" t="n"/>
       <c r="I9" s="2" t="n"/>
@@ -959,19 +950,16 @@
           <t>CASH SALES</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>362.04</v>
-      </c>
-      <c r="C12" s="2" t="n">
+      <c r="C12" s="2" t="n"/>
+      <c r="D12" s="2" t="n">
         <v>238.49</v>
       </c>
-      <c r="D12" s="2" t="n">
+      <c r="E12" s="2" t="n">
         <v>99.51000000000001</v>
       </c>
-      <c r="E12" s="2" t="n">
+      <c r="F12" s="2" t="n">
         <v>1380.84</v>
       </c>
-      <c r="F12" s="2" t="n"/>
       <c r="G12" s="2" t="n"/>
       <c r="H12" s="2" t="n"/>
       <c r="I12" s="2" t="n"/>
@@ -1002,17 +990,14 @@
           <t>UBER EATS</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>190.46</v>
-      </c>
-      <c r="C13" s="2" t="n">
+      <c r="C13" s="2" t="n"/>
+      <c r="D13" s="2" t="n">
         <v>117.7</v>
       </c>
-      <c r="D13" s="2" t="n"/>
-      <c r="E13" s="2" t="n">
+      <c r="E13" s="2" t="n"/>
+      <c r="F13" s="2" t="n">
         <v>234.33</v>
       </c>
-      <c r="F13" s="2" t="n"/>
       <c r="G13" s="2" t="n"/>
       <c r="H13" s="2" t="n"/>
       <c r="I13" s="2" t="n"/>
@@ -1043,19 +1028,16 @@
           <t>TIPS PAID</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>486.81</v>
-      </c>
-      <c r="C14" s="2" t="n">
+      <c r="C14" s="2" t="n"/>
+      <c r="D14" s="2" t="n">
         <v>420.79</v>
       </c>
-      <c r="D14" s="2" t="n">
+      <c r="E14" s="2" t="n">
         <v>420.89</v>
       </c>
-      <c r="E14" s="2" t="n">
+      <c r="F14" s="2" t="n">
         <v>2750.06</v>
       </c>
-      <c r="F14" s="2" t="n"/>
       <c r="G14" s="2" t="n"/>
       <c r="H14" s="2" t="n"/>
       <c r="I14" s="2" t="n"/>
@@ -1086,19 +1068,16 @@
           <t>S-FOOD</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>1681</v>
-      </c>
-      <c r="C15" s="2" t="n">
+      <c r="C15" s="2" t="n"/>
+      <c r="D15" s="2" t="n">
         <v>1684</v>
       </c>
-      <c r="D15" s="2" t="n">
+      <c r="E15" s="2" t="n">
         <v>1482</v>
       </c>
-      <c r="E15" s="2" t="n">
+      <c r="F15" s="2" t="n">
         <v>10035</v>
       </c>
-      <c r="F15" s="2" t="n"/>
       <c r="G15" s="2" t="n"/>
       <c r="H15" s="2" t="n"/>
       <c r="I15" s="2" t="n"/>
@@ -1129,19 +1108,16 @@
           <t>S-BAR</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>1275.98</v>
-      </c>
-      <c r="C16" s="2" t="n">
+      <c r="C16" s="2" t="n"/>
+      <c r="D16" s="2" t="n">
         <v>678</v>
       </c>
-      <c r="D16" s="2" t="n">
+      <c r="E16" s="2" t="n">
         <v>785</v>
       </c>
-      <c r="E16" s="2" t="n">
+      <c r="F16" s="2" t="n">
         <v>5094</v>
       </c>
-      <c r="F16" s="2" t="n"/>
       <c r="G16" s="2" t="n"/>
       <c r="H16" s="2" t="n"/>
       <c r="I16" s="2" t="n"/>
@@ -1206,19 +1182,16 @@
           <t>COMP PROMO</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>455.73</v>
-      </c>
-      <c r="C18" s="2" t="n">
+      <c r="C18" s="2" t="n"/>
+      <c r="D18" s="2" t="n">
         <v>206.75</v>
       </c>
-      <c r="D18" s="2" t="n">
+      <c r="E18" s="2" t="n">
         <v>67.5</v>
       </c>
-      <c r="E18" s="2" t="n">
+      <c r="F18" s="2" t="n">
         <v>696.75</v>
       </c>
-      <c r="F18" s="2" t="n"/>
       <c r="G18" s="2" t="n"/>
       <c r="H18" s="2" t="n"/>
       <c r="I18" s="2" t="n"/>
@@ -1249,19 +1222,16 @@
           <t>MGR DISCOUNT</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>13</v>
-      </c>
-      <c r="C19" s="2" t="n">
+      <c r="C19" s="2" t="n"/>
+      <c r="D19" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="D19" s="2" t="n">
+      <c r="E19" s="2" t="n">
         <v>71</v>
       </c>
-      <c r="E19" s="2" t="n">
+      <c r="F19" s="2" t="n">
         <v>323</v>
       </c>
-      <c r="F19" s="2" t="n"/>
       <c r="G19" s="2" t="n"/>
       <c r="H19" s="2" t="n"/>
       <c r="I19" s="2" t="n"/>
@@ -1324,14 +1294,14 @@
           <t>SERV. DISCOUNT</t>
         </is>
       </c>
-      <c r="C21" s="2" t="n">
+      <c r="C21" s="2" t="n"/>
+      <c r="D21" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="D21" s="2" t="n"/>
-      <c r="E21" s="2" t="n">
+      <c r="E21" s="2" t="n"/>
+      <c r="F21" s="2" t="n">
         <v>6.5</v>
       </c>
-      <c r="F21" s="2" t="n"/>
       <c r="G21" s="2" t="n"/>
       <c r="H21" s="2" t="n"/>
       <c r="I21" s="2" t="n"/>
@@ -1361,17 +1331,14 @@
           <t>QSA</t>
         </is>
       </c>
-      <c r="B22" t="n">
-        <v>10</v>
-      </c>
       <c r="C22" s="2" t="n"/>
-      <c r="D22" s="2" t="n">
+      <c r="D22" s="2" t="n"/>
+      <c r="E22" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="E22" s="2" t="n">
+      <c r="F22" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="F22" s="2" t="n"/>
       <c r="G22" s="2" t="n"/>
       <c r="H22" s="2" t="n"/>
       <c r="I22" s="2" t="n"/>
@@ -1402,17 +1369,15 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>173.65</v>
+        <v>149.14</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>149.14</v>
+        <v>146.92</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>146.92</v>
-      </c>
-      <c r="E23" s="2" t="n">
         <v>984.91</v>
       </c>
+      <c r="E23" s="2" t="n"/>
       <c r="F23" s="2" t="n"/>
       <c r="G23" s="2" t="n"/>
       <c r="H23" s="2" t="n"/>
